--- a/Financials/Yearly/CZZ_YR_FIN.xlsx
+++ b/Financials/Yearly/CZZ_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F39E3A-3FC8-40AC-A712-A9712F37B491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CZZ" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,33 +689,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -707,88 +742,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3369500</v>
+        <v>3482300</v>
       </c>
       <c r="E8" s="3">
-        <v>3105500</v>
+        <v>3209400</v>
       </c>
       <c r="F8" s="3">
-        <v>3065200</v>
+        <v>3167700</v>
       </c>
       <c r="G8" s="3">
-        <v>2209100</v>
+        <v>2283000</v>
       </c>
       <c r="H8" s="3">
-        <v>1706300</v>
+        <v>1763400</v>
       </c>
       <c r="I8" s="3">
-        <v>1137700</v>
+        <v>1175800</v>
       </c>
       <c r="J8" s="3">
-        <v>1132100</v>
+        <v>1170000</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2290300</v>
+        <v>2367000</v>
       </c>
       <c r="E9" s="3">
-        <v>2063400</v>
+        <v>2132400</v>
       </c>
       <c r="F9" s="3">
-        <v>2144800</v>
+        <v>2216600</v>
       </c>
       <c r="G9" s="3">
-        <v>1576100</v>
+        <v>1628800</v>
       </c>
       <c r="H9" s="3">
-        <v>1210200</v>
+        <v>1250700</v>
       </c>
       <c r="I9" s="3">
-        <v>796700</v>
+        <v>823300</v>
       </c>
       <c r="J9" s="3">
-        <v>916900</v>
+        <v>947600</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1079200</v>
+        <v>1115300</v>
       </c>
       <c r="E10" s="3">
-        <v>1042100</v>
+        <v>1077000</v>
       </c>
       <c r="F10" s="3">
-        <v>920300</v>
+        <v>951100</v>
       </c>
       <c r="G10" s="3">
-        <v>633000</v>
+        <v>654200</v>
       </c>
       <c r="H10" s="3">
-        <v>496200</v>
+        <v>512800</v>
       </c>
       <c r="I10" s="3">
-        <v>341100</v>
+        <v>352500</v>
       </c>
       <c r="J10" s="3">
-        <v>215200</v>
+        <v>222400</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,7 +836,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,7 +863,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -855,34 +890,34 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>42800</v>
+        <v>44300</v>
       </c>
       <c r="E14" s="3">
-        <v>27700</v>
+        <v>28700</v>
       </c>
       <c r="F14" s="3">
-        <v>29100</v>
+        <v>30100</v>
       </c>
       <c r="G14" s="3">
-        <v>39100</v>
+        <v>40400</v>
       </c>
       <c r="H14" s="3">
-        <v>21400</v>
+        <v>22100</v>
       </c>
       <c r="I14" s="3">
-        <v>-18200</v>
+        <v>-18800</v>
       </c>
       <c r="J14" s="3">
-        <v>-657900</v>
+        <v>-679900</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -909,7 +944,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,61 +954,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2321100</v>
+        <v>2398800</v>
       </c>
       <c r="E17" s="3">
-        <v>2209500</v>
+        <v>2283400</v>
       </c>
       <c r="F17" s="3">
-        <v>2357400</v>
+        <v>2436300</v>
       </c>
       <c r="G17" s="3">
-        <v>1845600</v>
+        <v>1907300</v>
       </c>
       <c r="H17" s="3">
-        <v>1456900</v>
+        <v>1505700</v>
       </c>
       <c r="I17" s="3">
-        <v>971600</v>
+        <v>1004100</v>
       </c>
       <c r="J17" s="3">
-        <v>386500</v>
+        <v>399500</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1048400</v>
+        <v>1083500</v>
       </c>
       <c r="E18" s="3">
-        <v>896000</v>
+        <v>926000</v>
       </c>
       <c r="F18" s="3">
-        <v>707800</v>
+        <v>731400</v>
       </c>
       <c r="G18" s="3">
-        <v>363500</v>
+        <v>375700</v>
       </c>
       <c r="H18" s="3">
-        <v>249400</v>
+        <v>257800</v>
       </c>
       <c r="I18" s="3">
-        <v>166100</v>
+        <v>171700</v>
       </c>
       <c r="J18" s="3">
-        <v>745600</v>
+        <v>770500</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,142 +1021,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-239200</v>
+        <v>-247200</v>
       </c>
       <c r="E20" s="3">
-        <v>-302700</v>
+        <v>-312900</v>
       </c>
       <c r="F20" s="3">
-        <v>126500</v>
+        <v>130700</v>
       </c>
       <c r="G20" s="3">
-        <v>-93600</v>
+        <v>-96700</v>
       </c>
       <c r="H20" s="3">
-        <v>64100</v>
+        <v>66300</v>
       </c>
       <c r="I20" s="3">
-        <v>178900</v>
+        <v>184800</v>
       </c>
       <c r="J20" s="3">
-        <v>169600</v>
+        <v>175200</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1283000</v>
+        <v>1321700</v>
       </c>
       <c r="E21" s="3">
-        <v>1017400</v>
+        <v>1047700</v>
       </c>
       <c r="F21" s="3">
-        <v>1122200</v>
+        <v>1157200</v>
       </c>
       <c r="G21" s="3">
-        <v>435700</v>
+        <v>448800</v>
       </c>
       <c r="H21" s="3">
-        <v>420900</v>
+        <v>434000</v>
       </c>
       <c r="I21" s="3">
-        <v>426800</v>
+        <v>440400</v>
       </c>
       <c r="J21" s="3">
-        <v>978900</v>
+        <v>1011100</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>443400</v>
+        <v>458200</v>
       </c>
       <c r="E22" s="3">
-        <v>455300</v>
+        <v>470600</v>
       </c>
       <c r="F22" s="3">
-        <v>668400</v>
+        <v>690800</v>
       </c>
       <c r="G22" s="3">
-        <v>153700</v>
+        <v>158800</v>
       </c>
       <c r="H22" s="3">
-        <v>179800</v>
+        <v>185800</v>
       </c>
       <c r="I22" s="3">
-        <v>116500</v>
+        <v>120400</v>
       </c>
       <c r="J22" s="3">
-        <v>137400</v>
+        <v>142000</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>365800</v>
+        <v>378100</v>
       </c>
       <c r="E23" s="3">
-        <v>137900</v>
+        <v>142500</v>
       </c>
       <c r="F23" s="3">
-        <v>165800</v>
+        <v>171400</v>
       </c>
       <c r="G23" s="3">
-        <v>116200</v>
+        <v>120100</v>
       </c>
       <c r="H23" s="3">
-        <v>133800</v>
+        <v>138200</v>
       </c>
       <c r="I23" s="3">
-        <v>228500</v>
+        <v>236100</v>
       </c>
       <c r="J23" s="3">
-        <v>777700</v>
+        <v>803700</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>106300</v>
+        <v>109800</v>
       </c>
       <c r="E24" s="3">
-        <v>15300</v>
+        <v>15800</v>
       </c>
       <c r="F24" s="3">
-        <v>-7500</v>
+        <v>-7800</v>
       </c>
       <c r="G24" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="H24" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="I24" s="3">
-        <v>31300</v>
+        <v>32400</v>
       </c>
       <c r="J24" s="3">
-        <v>252800</v>
+        <v>261300</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1148,61 +1183,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>259600</v>
+        <v>268200</v>
       </c>
       <c r="E26" s="3">
-        <v>122600</v>
+        <v>126700</v>
       </c>
       <c r="F26" s="3">
-        <v>173400</v>
+        <v>179200</v>
       </c>
       <c r="G26" s="3">
-        <v>110400</v>
+        <v>114100</v>
       </c>
       <c r="H26" s="3">
-        <v>124000</v>
+        <v>128200</v>
       </c>
       <c r="I26" s="3">
-        <v>197100</v>
+        <v>203700</v>
       </c>
       <c r="J26" s="3">
-        <v>524900</v>
+        <v>542500</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>136700</v>
+        <v>141300</v>
       </c>
       <c r="E27" s="3">
-        <v>77700</v>
+        <v>80300</v>
       </c>
       <c r="F27" s="3">
-        <v>75600</v>
+        <v>78200</v>
       </c>
       <c r="G27" s="3">
-        <v>-5000</v>
+        <v>-5200</v>
       </c>
       <c r="H27" s="3">
-        <v>30400</v>
+        <v>31400</v>
       </c>
       <c r="I27" s="3">
-        <v>70700</v>
+        <v>73100</v>
       </c>
       <c r="J27" s="3">
-        <v>275900</v>
+        <v>285100</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1229,7 +1264,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1237,26 +1272,26 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="F29" s="3">
-        <v>25000</v>
+        <v>25900</v>
       </c>
       <c r="G29" s="3">
-        <v>44800</v>
+        <v>46300</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>34500</v>
+        <v>35600</v>
       </c>
       <c r="J29" s="3">
-        <v>15900</v>
+        <v>16500</v>
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1283,7 +1318,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1310,61 +1345,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>239200</v>
+        <v>247200</v>
       </c>
       <c r="E32" s="3">
-        <v>302700</v>
+        <v>312900</v>
       </c>
       <c r="F32" s="3">
-        <v>-126500</v>
+        <v>-130700</v>
       </c>
       <c r="G32" s="3">
-        <v>93600</v>
+        <v>96700</v>
       </c>
       <c r="H32" s="3">
-        <v>-64100</v>
+        <v>-66300</v>
       </c>
       <c r="I32" s="3">
-        <v>-178900</v>
+        <v>-184800</v>
       </c>
       <c r="J32" s="3">
-        <v>-169600</v>
+        <v>-175200</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>136700</v>
+        <v>141300</v>
       </c>
       <c r="E33" s="3">
-        <v>86400</v>
+        <v>89300</v>
       </c>
       <c r="F33" s="3">
-        <v>100700</v>
+        <v>104000</v>
       </c>
       <c r="G33" s="3">
-        <v>39800</v>
+        <v>41100</v>
       </c>
       <c r="H33" s="3">
-        <v>30400</v>
+        <v>31400</v>
       </c>
       <c r="I33" s="3">
-        <v>105200</v>
+        <v>108700</v>
       </c>
       <c r="J33" s="3">
-        <v>291800</v>
+        <v>301600</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1391,39 +1426,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>136700</v>
+        <v>141300</v>
       </c>
       <c r="E35" s="3">
-        <v>86400</v>
+        <v>89300</v>
       </c>
       <c r="F35" s="3">
-        <v>100700</v>
+        <v>104000</v>
       </c>
       <c r="G35" s="3">
-        <v>39800</v>
+        <v>41100</v>
       </c>
       <c r="H35" s="3">
-        <v>30400</v>
+        <v>31400</v>
       </c>
       <c r="I35" s="3">
-        <v>105200</v>
+        <v>108700</v>
       </c>
       <c r="J35" s="3">
-        <v>291800</v>
+        <v>301600</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1450,7 +1485,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,7 +1498,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,250 +1511,250 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13300</v>
+        <v>13700</v>
       </c>
       <c r="E41" s="3">
-        <v>93300</v>
+        <v>96400</v>
       </c>
       <c r="F41" s="3">
-        <v>75800</v>
+        <v>78300</v>
       </c>
       <c r="G41" s="3">
-        <v>447100</v>
+        <v>462000</v>
       </c>
       <c r="H41" s="3">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="I41" s="3">
-        <v>660100</v>
+        <v>682200</v>
       </c>
       <c r="J41" s="3">
-        <v>410400</v>
+        <v>424100</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2405100</v>
+        <v>2485600</v>
       </c>
       <c r="E42" s="3">
-        <v>1343400</v>
+        <v>1388300</v>
       </c>
       <c r="F42" s="3">
-        <v>944100</v>
+        <v>975700</v>
       </c>
       <c r="G42" s="3">
-        <v>408400</v>
+        <v>422100</v>
       </c>
       <c r="H42" s="3">
-        <v>365800</v>
+        <v>378100</v>
       </c>
       <c r="I42" s="3">
-        <v>394000</v>
+        <v>407200</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>486500</v>
+        <v>502800</v>
       </c>
       <c r="E43" s="3">
-        <v>465700</v>
+        <v>481300</v>
       </c>
       <c r="F43" s="3">
-        <v>356900</v>
+        <v>368800</v>
       </c>
       <c r="G43" s="3">
-        <v>293300</v>
+        <v>303100</v>
       </c>
       <c r="H43" s="3">
-        <v>278500</v>
+        <v>287800</v>
       </c>
       <c r="I43" s="3">
-        <v>829200</v>
+        <v>856900</v>
       </c>
       <c r="J43" s="3">
-        <v>483600</v>
+        <v>499800</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>164500</v>
+        <v>170000</v>
       </c>
       <c r="E44" s="3">
-        <v>156500</v>
+        <v>161700</v>
       </c>
       <c r="F44" s="3">
-        <v>325900</v>
+        <v>336800</v>
       </c>
       <c r="G44" s="3">
-        <v>175500</v>
+        <v>181400</v>
       </c>
       <c r="H44" s="3">
-        <v>77400</v>
+        <v>80000</v>
       </c>
       <c r="I44" s="3">
-        <v>249200</v>
+        <v>257500</v>
       </c>
       <c r="J44" s="3">
-        <v>185600</v>
+        <v>191800</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>164100</v>
+        <v>169600</v>
       </c>
       <c r="E45" s="3">
-        <v>116600</v>
+        <v>120500</v>
       </c>
       <c r="F45" s="3">
-        <v>155900</v>
+        <v>161100</v>
       </c>
       <c r="G45" s="3">
-        <v>57100</v>
+        <v>59000</v>
       </c>
       <c r="H45" s="3">
-        <v>132000</v>
+        <v>136400</v>
       </c>
       <c r="I45" s="3">
-        <v>249600</v>
+        <v>257900</v>
       </c>
       <c r="J45" s="3">
-        <v>99700</v>
+        <v>103000</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3233500</v>
+        <v>3341600</v>
       </c>
       <c r="E46" s="3">
-        <v>2175400</v>
+        <v>2248200</v>
       </c>
       <c r="F46" s="3">
-        <v>1695700</v>
+        <v>1752400</v>
       </c>
       <c r="G46" s="3">
-        <v>884400</v>
+        <v>914000</v>
       </c>
       <c r="H46" s="3">
-        <v>884200</v>
+        <v>913700</v>
       </c>
       <c r="I46" s="3">
-        <v>854200</v>
+        <v>882800</v>
       </c>
       <c r="J46" s="3">
-        <v>1179300</v>
+        <v>1218700</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2478400</v>
+        <v>2561300</v>
       </c>
       <c r="E47" s="3">
-        <v>2454300</v>
+        <v>2536400</v>
       </c>
       <c r="F47" s="3">
-        <v>2392900</v>
+        <v>2473000</v>
       </c>
       <c r="G47" s="3">
-        <v>2392600</v>
+        <v>2472700</v>
       </c>
       <c r="H47" s="3">
-        <v>2436000</v>
+        <v>2517500</v>
       </c>
       <c r="I47" s="3">
-        <v>3353500</v>
+        <v>3465700</v>
       </c>
       <c r="J47" s="3">
-        <v>465100</v>
+        <v>480700</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2898000</v>
+        <v>2994900</v>
       </c>
       <c r="E48" s="3">
-        <v>2661000</v>
+        <v>2750000</v>
       </c>
       <c r="F48" s="3">
-        <v>3076400</v>
+        <v>3179300</v>
       </c>
       <c r="G48" s="3">
-        <v>1367900</v>
+        <v>1413600</v>
       </c>
       <c r="H48" s="3">
-        <v>881500</v>
+        <v>911000</v>
       </c>
       <c r="I48" s="3">
-        <v>997300</v>
+        <v>1030700</v>
       </c>
       <c r="J48" s="3">
-        <v>2267000</v>
+        <v>2342800</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4210800</v>
+        <v>4351700</v>
       </c>
       <c r="E49" s="3">
-        <v>4244500</v>
+        <v>4386500</v>
       </c>
       <c r="F49" s="3">
-        <v>4294200</v>
+        <v>4437900</v>
       </c>
       <c r="G49" s="3">
-        <v>5103700</v>
+        <v>5274400</v>
       </c>
       <c r="H49" s="3">
-        <v>2500200</v>
+        <v>2583800</v>
       </c>
       <c r="I49" s="3">
-        <v>5650500</v>
+        <v>5839500</v>
       </c>
       <c r="J49" s="3">
-        <v>1223600</v>
+        <v>1264500</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1746,7 +1781,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1773,34 +1808,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>978700</v>
+        <v>1011400</v>
       </c>
       <c r="E52" s="3">
-        <v>985300</v>
+        <v>1018300</v>
       </c>
       <c r="F52" s="3">
-        <v>1502800</v>
+        <v>1553100</v>
       </c>
       <c r="G52" s="3">
-        <v>531300</v>
+        <v>549100</v>
       </c>
       <c r="H52" s="3">
-        <v>397200</v>
+        <v>410500</v>
       </c>
       <c r="I52" s="3">
-        <v>575400</v>
+        <v>594600</v>
       </c>
       <c r="J52" s="3">
-        <v>439700</v>
+        <v>454400</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1827,34 +1862,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13799300</v>
+        <v>14261000</v>
       </c>
       <c r="E54" s="3">
-        <v>12520600</v>
+        <v>12939500</v>
       </c>
       <c r="F54" s="3">
-        <v>12962000</v>
+        <v>13395700</v>
       </c>
       <c r="G54" s="3">
-        <v>7371900</v>
+        <v>7618500</v>
       </c>
       <c r="H54" s="3">
-        <v>7099000</v>
+        <v>7336500</v>
       </c>
       <c r="I54" s="3">
-        <v>6827400</v>
+        <v>7055800</v>
       </c>
       <c r="J54" s="3">
-        <v>5499500</v>
+        <v>5683500</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,7 +1902,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,169 +1915,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>603800</v>
+        <v>624000</v>
       </c>
       <c r="E57" s="3">
-        <v>504200</v>
+        <v>521100</v>
       </c>
       <c r="F57" s="3">
-        <v>487200</v>
+        <v>503500</v>
       </c>
       <c r="G57" s="3">
-        <v>276000</v>
+        <v>285200</v>
       </c>
       <c r="H57" s="3">
-        <v>214000</v>
+        <v>221100</v>
       </c>
       <c r="I57" s="3">
-        <v>227400</v>
+        <v>235100</v>
       </c>
       <c r="J57" s="3">
-        <v>193900</v>
+        <v>200400</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1040000</v>
+        <v>1074800</v>
       </c>
       <c r="E58" s="3">
-        <v>720500</v>
+        <v>744600</v>
       </c>
       <c r="F58" s="3">
-        <v>961300</v>
+        <v>993500</v>
       </c>
       <c r="G58" s="3">
-        <v>262100</v>
+        <v>270800</v>
       </c>
       <c r="H58" s="3">
-        <v>260700</v>
+        <v>269400</v>
       </c>
       <c r="I58" s="3">
-        <v>399000</v>
+        <v>412400</v>
       </c>
       <c r="J58" s="3">
-        <v>134000</v>
+        <v>138500</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>594400</v>
+        <v>614300</v>
       </c>
       <c r="E59" s="3">
-        <v>419800</v>
+        <v>433900</v>
       </c>
       <c r="F59" s="3">
-        <v>483300</v>
+        <v>499500</v>
       </c>
       <c r="G59" s="3">
-        <v>199000</v>
+        <v>205700</v>
       </c>
       <c r="H59" s="3">
-        <v>182900</v>
+        <v>189100</v>
       </c>
       <c r="I59" s="3">
-        <v>367300</v>
+        <v>379600</v>
       </c>
       <c r="J59" s="3">
-        <v>186700</v>
+        <v>193000</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2238300</v>
+        <v>2313100</v>
       </c>
       <c r="E60" s="3">
-        <v>1644500</v>
+        <v>1699600</v>
       </c>
       <c r="F60" s="3">
-        <v>1717400</v>
+        <v>1774800</v>
       </c>
       <c r="G60" s="3">
-        <v>737000</v>
+        <v>761700</v>
       </c>
       <c r="H60" s="3">
-        <v>657600</v>
+        <v>679600</v>
       </c>
       <c r="I60" s="3">
-        <v>741000</v>
+        <v>765800</v>
       </c>
       <c r="J60" s="3">
-        <v>514600</v>
+        <v>531900</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5660400</v>
+        <v>5849800</v>
       </c>
       <c r="E61" s="3">
-        <v>5261500</v>
+        <v>5437600</v>
       </c>
       <c r="F61" s="3">
-        <v>5334400</v>
+        <v>5512900</v>
       </c>
       <c r="G61" s="3">
-        <v>2325300</v>
+        <v>2403100</v>
       </c>
       <c r="H61" s="3">
-        <v>1995100</v>
+        <v>2061800</v>
       </c>
       <c r="I61" s="3">
-        <v>1711700</v>
+        <v>1768900</v>
       </c>
       <c r="J61" s="3">
-        <v>1155800</v>
+        <v>1194500</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1668500</v>
+        <v>1724400</v>
       </c>
       <c r="E62" s="3">
-        <v>1642800</v>
+        <v>1697800</v>
       </c>
       <c r="F62" s="3">
-        <v>2073400</v>
+        <v>2142700</v>
       </c>
       <c r="G62" s="3">
-        <v>982700</v>
+        <v>1015600</v>
       </c>
       <c r="H62" s="3">
-        <v>1142000</v>
+        <v>1180200</v>
       </c>
       <c r="I62" s="3">
-        <v>1982500</v>
+        <v>2048800</v>
       </c>
       <c r="J62" s="3">
-        <v>1476800</v>
+        <v>1526200</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2069,7 +2104,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,7 +2131,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2123,34 +2158,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12301200</v>
+        <v>12712800</v>
       </c>
       <c r="E66" s="3">
-        <v>10964500</v>
+        <v>11331300</v>
       </c>
       <c r="F66" s="3">
-        <v>11494900</v>
+        <v>11879500</v>
       </c>
       <c r="G66" s="3">
-        <v>5934200</v>
+        <v>6132700</v>
       </c>
       <c r="H66" s="3">
-        <v>5638700</v>
+        <v>5827400</v>
       </c>
       <c r="I66" s="3">
-        <v>5339600</v>
+        <v>5518200</v>
       </c>
       <c r="J66" s="3">
-        <v>4115800</v>
+        <v>4253500</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,7 +2198,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2190,7 +2225,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2217,7 +2252,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2244,7 +2279,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2271,34 +2306,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>789400</v>
+        <v>815800</v>
       </c>
       <c r="E72" s="3">
-        <v>668800</v>
+        <v>691200</v>
       </c>
       <c r="F72" s="3">
-        <v>590400</v>
+        <v>610200</v>
       </c>
       <c r="G72" s="3">
-        <v>513100</v>
+        <v>530300</v>
       </c>
       <c r="H72" s="3">
-        <v>530100</v>
+        <v>547900</v>
       </c>
       <c r="I72" s="3">
-        <v>1519700</v>
+        <v>1570600</v>
       </c>
       <c r="J72" s="3">
-        <v>1426100</v>
+        <v>1473800</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2325,7 +2360,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2352,7 +2387,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2379,34 +2414,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1498100</v>
+        <v>1548200</v>
       </c>
       <c r="E76" s="3">
-        <v>1556100</v>
+        <v>1608100</v>
       </c>
       <c r="F76" s="3">
-        <v>1467100</v>
+        <v>1516200</v>
       </c>
       <c r="G76" s="3">
-        <v>1437700</v>
+        <v>1485800</v>
       </c>
       <c r="H76" s="3">
-        <v>1460300</v>
+        <v>1509100</v>
       </c>
       <c r="I76" s="3">
-        <v>1487800</v>
+        <v>1537600</v>
       </c>
       <c r="J76" s="3">
-        <v>1383600</v>
+        <v>1429900</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2433,12 +2468,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2465,34 +2500,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>136700</v>
+        <v>141300</v>
       </c>
       <c r="E81" s="3">
-        <v>86400</v>
+        <v>89300</v>
       </c>
       <c r="F81" s="3">
-        <v>100700</v>
+        <v>104000</v>
       </c>
       <c r="G81" s="3">
-        <v>39800</v>
+        <v>41100</v>
       </c>
       <c r="H81" s="3">
-        <v>30400</v>
+        <v>31400</v>
       </c>
       <c r="I81" s="3">
-        <v>105200</v>
+        <v>108700</v>
       </c>
       <c r="J81" s="3">
-        <v>291800</v>
+        <v>301600</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,34 +2540,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>480900</v>
+        <v>497000</v>
       </c>
       <c r="E83" s="3">
-        <v>430500</v>
+        <v>444900</v>
       </c>
       <c r="F83" s="3">
-        <v>292300</v>
+        <v>302000</v>
       </c>
       <c r="G83" s="3">
-        <v>168200</v>
+        <v>173900</v>
       </c>
       <c r="H83" s="3">
-        <v>108900</v>
+        <v>112600</v>
       </c>
       <c r="I83" s="3">
-        <v>83100</v>
+        <v>85800</v>
       </c>
       <c r="J83" s="3">
-        <v>64700</v>
+        <v>66900</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2559,7 +2594,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2586,7 +2621,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2613,7 +2648,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2640,7 +2675,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2667,34 +2702,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1014200</v>
+        <v>1048100</v>
       </c>
       <c r="E89" s="3">
-        <v>901900</v>
+        <v>932000</v>
       </c>
       <c r="F89" s="3">
-        <v>831200</v>
+        <v>859000</v>
       </c>
       <c r="G89" s="3">
-        <v>277100</v>
+        <v>286400</v>
       </c>
       <c r="H89" s="3">
-        <v>280400</v>
+        <v>289800</v>
       </c>
       <c r="I89" s="3">
-        <v>70200</v>
+        <v>72600</v>
       </c>
       <c r="J89" s="3">
-        <v>161700</v>
+        <v>167200</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,34 +2742,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-609600</v>
+        <v>-630000</v>
       </c>
       <c r="E91" s="3">
-        <v>-543500</v>
+        <v>-561700</v>
       </c>
       <c r="F91" s="3">
-        <v>-498700</v>
+        <v>-515400</v>
       </c>
       <c r="G91" s="3">
-        <v>-263500</v>
+        <v>-272300</v>
       </c>
       <c r="H91" s="3">
-        <v>-242200</v>
+        <v>-250300</v>
       </c>
       <c r="I91" s="3">
-        <v>-944000</v>
+        <v>-975500</v>
       </c>
       <c r="J91" s="3">
-        <v>-225600</v>
+        <v>-233200</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2761,7 +2796,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2788,34 +2823,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-887500</v>
+        <v>-917200</v>
       </c>
       <c r="E94" s="3">
-        <v>-180400</v>
+        <v>-186400</v>
       </c>
       <c r="F94" s="3">
-        <v>-248800</v>
+        <v>-257200</v>
       </c>
       <c r="G94" s="3">
-        <v>-76500</v>
+        <v>-79100</v>
       </c>
       <c r="H94" s="3">
-        <v>-125200</v>
+        <v>-129400</v>
       </c>
       <c r="I94" s="3">
-        <v>-672400</v>
+        <v>-694900</v>
       </c>
       <c r="J94" s="3">
-        <v>-292800</v>
+        <v>-302600</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,34 +2863,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-270400</v>
+        <v>-279400</v>
       </c>
       <c r="E96" s="3">
-        <v>-357400</v>
+        <v>-369300</v>
       </c>
       <c r="F96" s="3">
-        <v>-162900</v>
+        <v>-168400</v>
       </c>
       <c r="G96" s="3">
-        <v>-147800</v>
+        <v>-152800</v>
       </c>
       <c r="H96" s="3">
-        <v>-78000</v>
+        <v>-80600</v>
       </c>
       <c r="I96" s="3">
-        <v>-98400</v>
+        <v>-101600</v>
       </c>
       <c r="J96" s="3">
-        <v>-82800</v>
+        <v>-85500</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2882,7 +2917,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2909,7 +2944,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2936,84 +2971,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-140400</v>
+        <v>-145000</v>
       </c>
       <c r="E100" s="3">
-        <v>-451300</v>
+        <v>-466400</v>
       </c>
       <c r="F100" s="3">
-        <v>-134600</v>
+        <v>-139100</v>
       </c>
       <c r="G100" s="3">
-        <v>-163400</v>
+        <v>-168800</v>
       </c>
       <c r="H100" s="3">
-        <v>-167100</v>
+        <v>-172600</v>
       </c>
       <c r="I100" s="3">
-        <v>727200</v>
+        <v>751500</v>
       </c>
       <c r="J100" s="3">
-        <v>68700</v>
+        <v>71000</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>27400</v>
+        <v>28400</v>
       </c>
       <c r="E101" s="3">
-        <v>-23600</v>
+        <v>-24400</v>
       </c>
       <c r="F101" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="G101" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="H101" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="I101" s="3">
         <v>1000</v>
       </c>
       <c r="J101" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>13800</v>
+        <v>14300</v>
       </c>
       <c r="E102" s="3">
-        <v>246500</v>
+        <v>254800</v>
       </c>
       <c r="F102" s="3">
-        <v>460600</v>
+        <v>476000</v>
       </c>
       <c r="G102" s="3">
-        <v>34700</v>
+        <v>35800</v>
       </c>
       <c r="H102" s="3">
-        <v>-8600</v>
+        <v>-8800</v>
       </c>
       <c r="I102" s="3">
-        <v>126000</v>
+        <v>130200</v>
       </c>
       <c r="J102" s="3">
-        <v>-58400</v>
+        <v>-60400</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/CZZ_YR_FIN.xlsx
+++ b/Financials/Yearly/CZZ_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F39E3A-3FC8-40AC-A712-A9712F37B491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="CZZ" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>CZZ</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,141 +654,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41364</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40999</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3482300</v>
+        <v>3933400</v>
       </c>
       <c r="E8" s="3">
-        <v>3209400</v>
+        <v>3171800</v>
       </c>
       <c r="F8" s="3">
-        <v>3167700</v>
+        <v>2923200</v>
       </c>
       <c r="G8" s="3">
-        <v>2283000</v>
+        <v>2885300</v>
       </c>
       <c r="H8" s="3">
-        <v>1763400</v>
+        <v>2079400</v>
       </c>
       <c r="I8" s="3">
-        <v>1175800</v>
+        <v>1606200</v>
       </c>
       <c r="J8" s="3">
+        <v>1071000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1170000</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2367000</v>
+        <v>2830200</v>
       </c>
       <c r="E9" s="3">
-        <v>2132400</v>
+        <v>2155900</v>
       </c>
       <c r="F9" s="3">
-        <v>2216600</v>
+        <v>1942300</v>
       </c>
       <c r="G9" s="3">
-        <v>1628800</v>
+        <v>2018900</v>
       </c>
       <c r="H9" s="3">
-        <v>1250700</v>
+        <v>1483600</v>
       </c>
       <c r="I9" s="3">
-        <v>823300</v>
+        <v>1139200</v>
       </c>
       <c r="J9" s="3">
+        <v>749900</v>
+      </c>
+      <c r="K9" s="3">
         <v>947600</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1115300</v>
+        <v>1103200</v>
       </c>
       <c r="E10" s="3">
-        <v>1077000</v>
+        <v>1015900</v>
       </c>
       <c r="F10" s="3">
-        <v>951100</v>
+        <v>980900</v>
       </c>
       <c r="G10" s="3">
-        <v>654200</v>
+        <v>866300</v>
       </c>
       <c r="H10" s="3">
-        <v>512800</v>
+        <v>595900</v>
       </c>
       <c r="I10" s="3">
-        <v>352500</v>
+        <v>467000</v>
       </c>
       <c r="J10" s="3">
+        <v>321100</v>
+      </c>
+      <c r="K10" s="3">
         <v>222400</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -861,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,36 +869,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>44300</v>
+        <v>-142600</v>
       </c>
       <c r="E14" s="3">
-        <v>28700</v>
+        <v>40300</v>
       </c>
       <c r="F14" s="3">
-        <v>30100</v>
+        <v>26100</v>
       </c>
       <c r="G14" s="3">
-        <v>40400</v>
+        <v>27400</v>
       </c>
       <c r="H14" s="3">
-        <v>22100</v>
+        <v>36800</v>
       </c>
       <c r="I14" s="3">
-        <v>-18800</v>
+        <v>20200</v>
       </c>
       <c r="J14" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-679900</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -942,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -953,62 +943,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2398800</v>
+        <v>2893200</v>
       </c>
       <c r="E17" s="3">
-        <v>2283400</v>
+        <v>2184900</v>
       </c>
       <c r="F17" s="3">
-        <v>2436300</v>
+        <v>2079800</v>
       </c>
       <c r="G17" s="3">
-        <v>1907300</v>
+        <v>2219000</v>
       </c>
       <c r="H17" s="3">
-        <v>1505700</v>
+        <v>1737300</v>
       </c>
       <c r="I17" s="3">
-        <v>1004100</v>
+        <v>1371400</v>
       </c>
       <c r="J17" s="3">
+        <v>914600</v>
+      </c>
+      <c r="K17" s="3">
         <v>399500</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1083500</v>
+        <v>1040200</v>
       </c>
       <c r="E18" s="3">
-        <v>926000</v>
+        <v>986900</v>
       </c>
       <c r="F18" s="3">
-        <v>731400</v>
+        <v>843400</v>
       </c>
       <c r="G18" s="3">
-        <v>375700</v>
+        <v>666200</v>
       </c>
       <c r="H18" s="3">
-        <v>257800</v>
+        <v>342200</v>
       </c>
       <c r="I18" s="3">
-        <v>171700</v>
+        <v>234800</v>
       </c>
       <c r="J18" s="3">
+        <v>156400</v>
+      </c>
+      <c r="K18" s="3">
         <v>770500</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,143 +1017,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-247200</v>
+        <v>-1300</v>
       </c>
       <c r="E20" s="3">
-        <v>-312900</v>
+        <v>-225100</v>
       </c>
       <c r="F20" s="3">
-        <v>130700</v>
+        <v>-285000</v>
       </c>
       <c r="G20" s="3">
-        <v>-96700</v>
+        <v>119100</v>
       </c>
       <c r="H20" s="3">
-        <v>66300</v>
+        <v>-88100</v>
       </c>
       <c r="I20" s="3">
-        <v>184800</v>
+        <v>60400</v>
       </c>
       <c r="J20" s="3">
+        <v>168400</v>
+      </c>
+      <c r="K20" s="3">
         <v>175200</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1321700</v>
+        <v>1525600</v>
       </c>
       <c r="E21" s="3">
-        <v>1047700</v>
+        <v>1219400</v>
       </c>
       <c r="F21" s="3">
-        <v>1157200</v>
+        <v>968200</v>
       </c>
       <c r="G21" s="3">
-        <v>448800</v>
+        <v>1063400</v>
       </c>
       <c r="H21" s="3">
-        <v>434000</v>
+        <v>414200</v>
       </c>
       <c r="I21" s="3">
-        <v>440400</v>
+        <v>398800</v>
       </c>
       <c r="J21" s="3">
+        <v>403800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1011100</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>458200</v>
+        <v>374900</v>
       </c>
       <c r="E22" s="3">
-        <v>470600</v>
+        <v>417400</v>
       </c>
       <c r="F22" s="3">
-        <v>690800</v>
+        <v>428600</v>
       </c>
       <c r="G22" s="3">
-        <v>158800</v>
+        <v>629200</v>
       </c>
       <c r="H22" s="3">
-        <v>185800</v>
+        <v>144700</v>
       </c>
       <c r="I22" s="3">
-        <v>120400</v>
+        <v>169200</v>
       </c>
       <c r="J22" s="3">
+        <v>109700</v>
+      </c>
+      <c r="K22" s="3">
         <v>142000</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>378100</v>
+        <v>664100</v>
       </c>
       <c r="E23" s="3">
-        <v>142500</v>
+        <v>344400</v>
       </c>
       <c r="F23" s="3">
-        <v>171400</v>
+        <v>129800</v>
       </c>
       <c r="G23" s="3">
-        <v>120100</v>
+        <v>156100</v>
       </c>
       <c r="H23" s="3">
-        <v>138200</v>
+        <v>109400</v>
       </c>
       <c r="I23" s="3">
-        <v>236100</v>
+        <v>125900</v>
       </c>
       <c r="J23" s="3">
+        <v>215000</v>
+      </c>
+      <c r="K23" s="3">
         <v>803700</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>109800</v>
+        <v>177600</v>
       </c>
       <c r="E24" s="3">
-        <v>15800</v>
+        <v>100000</v>
       </c>
       <c r="F24" s="3">
-        <v>-7800</v>
+        <v>14400</v>
       </c>
       <c r="G24" s="3">
-        <v>6000</v>
+        <v>-7100</v>
       </c>
       <c r="H24" s="3">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="I24" s="3">
-        <v>32400</v>
+        <v>9200</v>
       </c>
       <c r="J24" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K24" s="3">
         <v>261300</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,63 +1194,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>268200</v>
+        <v>486500</v>
       </c>
       <c r="E26" s="3">
-        <v>126700</v>
+        <v>244300</v>
       </c>
       <c r="F26" s="3">
-        <v>179200</v>
+        <v>115400</v>
       </c>
       <c r="G26" s="3">
-        <v>114100</v>
+        <v>163200</v>
       </c>
       <c r="H26" s="3">
-        <v>128200</v>
+        <v>103900</v>
       </c>
       <c r="I26" s="3">
-        <v>203700</v>
+        <v>116800</v>
       </c>
       <c r="J26" s="3">
+        <v>185500</v>
+      </c>
+      <c r="K26" s="3">
         <v>542500</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>141300</v>
+        <v>227800</v>
       </c>
       <c r="E27" s="3">
-        <v>80300</v>
+        <v>128700</v>
       </c>
       <c r="F27" s="3">
-        <v>78200</v>
+        <v>73100</v>
       </c>
       <c r="G27" s="3">
-        <v>-5200</v>
+        <v>71200</v>
       </c>
       <c r="H27" s="3">
-        <v>31400</v>
+        <v>-4700</v>
       </c>
       <c r="I27" s="3">
-        <v>73100</v>
+        <v>28600</v>
       </c>
       <c r="J27" s="3">
+        <v>66600</v>
+      </c>
+      <c r="K27" s="3">
         <v>285100</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1262,36 +1284,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>25900</v>
+        <v>8200</v>
       </c>
       <c r="G29" s="3">
-        <v>46300</v>
+        <v>23600</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>42200</v>
       </c>
       <c r="I29" s="3">
-        <v>35600</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K29" s="3">
         <v>16500</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1316,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1343,63 +1374,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>247200</v>
+        <v>1300</v>
       </c>
       <c r="E32" s="3">
-        <v>312900</v>
+        <v>225100</v>
       </c>
       <c r="F32" s="3">
-        <v>-130700</v>
+        <v>285000</v>
       </c>
       <c r="G32" s="3">
-        <v>96700</v>
+        <v>-119100</v>
       </c>
       <c r="H32" s="3">
-        <v>-66300</v>
+        <v>88100</v>
       </c>
       <c r="I32" s="3">
-        <v>-184800</v>
+        <v>-60400</v>
       </c>
       <c r="J32" s="3">
+        <v>-168400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-175200</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>141300</v>
+        <v>227800</v>
       </c>
       <c r="E33" s="3">
-        <v>89300</v>
+        <v>128700</v>
       </c>
       <c r="F33" s="3">
-        <v>104000</v>
+        <v>81300</v>
       </c>
       <c r="G33" s="3">
-        <v>41100</v>
+        <v>94700</v>
       </c>
       <c r="H33" s="3">
-        <v>31400</v>
+        <v>37500</v>
       </c>
       <c r="I33" s="3">
-        <v>108700</v>
+        <v>28600</v>
       </c>
       <c r="J33" s="3">
+        <v>99000</v>
+      </c>
+      <c r="K33" s="3">
         <v>301600</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1424,68 +1464,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>141300</v>
+        <v>227800</v>
       </c>
       <c r="E35" s="3">
-        <v>89300</v>
+        <v>128700</v>
       </c>
       <c r="F35" s="3">
-        <v>104000</v>
+        <v>81300</v>
       </c>
       <c r="G35" s="3">
-        <v>41100</v>
+        <v>94700</v>
       </c>
       <c r="H35" s="3">
-        <v>31400</v>
+        <v>37500</v>
       </c>
       <c r="I35" s="3">
-        <v>108700</v>
+        <v>28600</v>
       </c>
       <c r="J35" s="3">
+        <v>99000</v>
+      </c>
+      <c r="K35" s="3">
         <v>301600</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41364</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40999</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1497,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1510,251 +1560,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13700</v>
+        <v>26000</v>
       </c>
       <c r="E41" s="3">
-        <v>96400</v>
+        <v>12500</v>
       </c>
       <c r="F41" s="3">
-        <v>78300</v>
+        <v>87800</v>
       </c>
       <c r="G41" s="3">
-        <v>462000</v>
+        <v>71300</v>
       </c>
       <c r="H41" s="3">
-        <v>31500</v>
+        <v>420800</v>
       </c>
       <c r="I41" s="3">
-        <v>682200</v>
+        <v>28700</v>
       </c>
       <c r="J41" s="3">
+        <v>621400</v>
+      </c>
+      <c r="K41" s="3">
         <v>424100</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2485600</v>
+        <v>1801200</v>
       </c>
       <c r="E42" s="3">
-        <v>1388300</v>
+        <v>2264000</v>
       </c>
       <c r="F42" s="3">
-        <v>975700</v>
+        <v>1264500</v>
       </c>
       <c r="G42" s="3">
-        <v>422100</v>
+        <v>888700</v>
       </c>
       <c r="H42" s="3">
-        <v>378100</v>
+        <v>384500</v>
       </c>
       <c r="I42" s="3">
-        <v>407200</v>
+        <v>344400</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+        <v>370800</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>502800</v>
+        <v>628900</v>
       </c>
       <c r="E43" s="3">
-        <v>481300</v>
+        <v>457900</v>
       </c>
       <c r="F43" s="3">
-        <v>368800</v>
+        <v>438300</v>
       </c>
       <c r="G43" s="3">
-        <v>303100</v>
+        <v>335900</v>
       </c>
       <c r="H43" s="3">
-        <v>287800</v>
+        <v>276100</v>
       </c>
       <c r="I43" s="3">
-        <v>856900</v>
+        <v>262100</v>
       </c>
       <c r="J43" s="3">
+        <v>780500</v>
+      </c>
+      <c r="K43" s="3">
         <v>499800</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>170000</v>
+        <v>167300</v>
       </c>
       <c r="E44" s="3">
-        <v>161700</v>
+        <v>154800</v>
       </c>
       <c r="F44" s="3">
-        <v>336800</v>
+        <v>147300</v>
       </c>
       <c r="G44" s="3">
-        <v>181400</v>
+        <v>306800</v>
       </c>
       <c r="H44" s="3">
-        <v>80000</v>
+        <v>165200</v>
       </c>
       <c r="I44" s="3">
-        <v>257500</v>
+        <v>72900</v>
       </c>
       <c r="J44" s="3">
+        <v>234500</v>
+      </c>
+      <c r="K44" s="3">
         <v>191800</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>169600</v>
+        <v>169500</v>
       </c>
       <c r="E45" s="3">
-        <v>120500</v>
+        <v>154400</v>
       </c>
       <c r="F45" s="3">
-        <v>161100</v>
+        <v>109700</v>
       </c>
       <c r="G45" s="3">
-        <v>59000</v>
+        <v>146800</v>
       </c>
       <c r="H45" s="3">
-        <v>136400</v>
+        <v>53700</v>
       </c>
       <c r="I45" s="3">
-        <v>257900</v>
+        <v>124200</v>
       </c>
       <c r="J45" s="3">
+        <v>234900</v>
+      </c>
+      <c r="K45" s="3">
         <v>103000</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3341600</v>
+        <v>2792800</v>
       </c>
       <c r="E46" s="3">
-        <v>2248200</v>
+        <v>3043700</v>
       </c>
       <c r="F46" s="3">
-        <v>1752400</v>
+        <v>2047700</v>
       </c>
       <c r="G46" s="3">
-        <v>914000</v>
+        <v>1596200</v>
       </c>
       <c r="H46" s="3">
-        <v>913700</v>
+        <v>832500</v>
       </c>
       <c r="I46" s="3">
-        <v>882800</v>
+        <v>832300</v>
       </c>
       <c r="J46" s="3">
+        <v>804100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1218700</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2561300</v>
+        <v>2265400</v>
       </c>
       <c r="E47" s="3">
-        <v>2536400</v>
+        <v>2333000</v>
       </c>
       <c r="F47" s="3">
-        <v>2473000</v>
+        <v>2310200</v>
       </c>
       <c r="G47" s="3">
-        <v>2472700</v>
+        <v>2252500</v>
       </c>
       <c r="H47" s="3">
-        <v>2517500</v>
+        <v>2252200</v>
       </c>
       <c r="I47" s="3">
-        <v>3465700</v>
+        <v>2293000</v>
       </c>
       <c r="J47" s="3">
+        <v>3156700</v>
+      </c>
+      <c r="K47" s="3">
         <v>480700</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2994900</v>
+        <v>2899800</v>
       </c>
       <c r="E48" s="3">
-        <v>2750000</v>
+        <v>2727900</v>
       </c>
       <c r="F48" s="3">
-        <v>3179300</v>
+        <v>2504800</v>
       </c>
       <c r="G48" s="3">
-        <v>1413600</v>
+        <v>2895900</v>
       </c>
       <c r="H48" s="3">
-        <v>911000</v>
+        <v>1287600</v>
       </c>
       <c r="I48" s="3">
-        <v>1030700</v>
+        <v>829800</v>
       </c>
       <c r="J48" s="3">
+        <v>938800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2342800</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4351700</v>
+        <v>4014300</v>
       </c>
       <c r="E49" s="3">
-        <v>4386500</v>
+        <v>3963700</v>
       </c>
       <c r="F49" s="3">
-        <v>4437900</v>
+        <v>3995400</v>
       </c>
       <c r="G49" s="3">
-        <v>5274400</v>
+        <v>4042200</v>
       </c>
       <c r="H49" s="3">
-        <v>2583800</v>
+        <v>4804100</v>
       </c>
       <c r="I49" s="3">
-        <v>5839500</v>
+        <v>2353400</v>
       </c>
       <c r="J49" s="3">
+        <v>5318800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1264500</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1779,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1806,36 +1887,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1011400</v>
+        <v>1189000</v>
       </c>
       <c r="E52" s="3">
-        <v>1018300</v>
+        <v>921200</v>
       </c>
       <c r="F52" s="3">
-        <v>1553100</v>
+        <v>927500</v>
       </c>
       <c r="G52" s="3">
-        <v>549100</v>
+        <v>1414600</v>
       </c>
       <c r="H52" s="3">
-        <v>410500</v>
+        <v>500100</v>
       </c>
       <c r="I52" s="3">
-        <v>594600</v>
+        <v>373900</v>
       </c>
       <c r="J52" s="3">
+        <v>541600</v>
+      </c>
+      <c r="K52" s="3">
         <v>454400</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1860,36 +1947,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14261000</v>
+        <v>13161400</v>
       </c>
       <c r="E54" s="3">
-        <v>12939500</v>
+        <v>12989400</v>
       </c>
       <c r="F54" s="3">
-        <v>13395700</v>
+        <v>11785700</v>
       </c>
       <c r="G54" s="3">
-        <v>7618500</v>
+        <v>12201200</v>
       </c>
       <c r="H54" s="3">
-        <v>7336500</v>
+        <v>6939200</v>
       </c>
       <c r="I54" s="3">
-        <v>7055800</v>
+        <v>6682300</v>
       </c>
       <c r="J54" s="3">
+        <v>6426700</v>
+      </c>
+      <c r="K54" s="3">
         <v>5683500</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1901,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1914,170 +2008,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>624000</v>
+        <v>449300</v>
       </c>
       <c r="E57" s="3">
-        <v>521100</v>
+        <v>568400</v>
       </c>
       <c r="F57" s="3">
-        <v>503500</v>
+        <v>474600</v>
       </c>
       <c r="G57" s="3">
-        <v>285200</v>
+        <v>458600</v>
       </c>
       <c r="H57" s="3">
-        <v>221100</v>
+        <v>259800</v>
       </c>
       <c r="I57" s="3">
-        <v>235100</v>
+        <v>201400</v>
       </c>
       <c r="J57" s="3">
+        <v>214100</v>
+      </c>
+      <c r="K57" s="3">
         <v>200400</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1074800</v>
+        <v>528800</v>
       </c>
       <c r="E58" s="3">
-        <v>744600</v>
+        <v>979000</v>
       </c>
       <c r="F58" s="3">
-        <v>993500</v>
+        <v>678200</v>
       </c>
       <c r="G58" s="3">
-        <v>270800</v>
+        <v>904900</v>
       </c>
       <c r="H58" s="3">
-        <v>269400</v>
+        <v>246700</v>
       </c>
       <c r="I58" s="3">
-        <v>412400</v>
+        <v>245400</v>
       </c>
       <c r="J58" s="3">
+        <v>375600</v>
+      </c>
+      <c r="K58" s="3">
         <v>138500</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>614300</v>
+        <v>479300</v>
       </c>
       <c r="E59" s="3">
-        <v>433900</v>
+        <v>559600</v>
       </c>
       <c r="F59" s="3">
-        <v>499500</v>
+        <v>395200</v>
       </c>
       <c r="G59" s="3">
-        <v>205700</v>
+        <v>454900</v>
       </c>
       <c r="H59" s="3">
-        <v>189100</v>
+        <v>187300</v>
       </c>
       <c r="I59" s="3">
-        <v>379600</v>
+        <v>172200</v>
       </c>
       <c r="J59" s="3">
+        <v>345700</v>
+      </c>
+      <c r="K59" s="3">
         <v>193000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2313100</v>
+        <v>1457400</v>
       </c>
       <c r="E60" s="3">
-        <v>1699600</v>
+        <v>2106900</v>
       </c>
       <c r="F60" s="3">
-        <v>1774800</v>
+        <v>1548000</v>
       </c>
       <c r="G60" s="3">
-        <v>761700</v>
+        <v>1616600</v>
       </c>
       <c r="H60" s="3">
-        <v>679600</v>
+        <v>693800</v>
       </c>
       <c r="I60" s="3">
-        <v>765800</v>
+        <v>619000</v>
       </c>
       <c r="J60" s="3">
+        <v>697500</v>
+      </c>
+      <c r="K60" s="3">
         <v>531900</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5849800</v>
+        <v>5877500</v>
       </c>
       <c r="E61" s="3">
-        <v>5437600</v>
+        <v>5328200</v>
       </c>
       <c r="F61" s="3">
-        <v>5512900</v>
+        <v>4952700</v>
       </c>
       <c r="G61" s="3">
-        <v>2403100</v>
+        <v>5021300</v>
       </c>
       <c r="H61" s="3">
-        <v>2061800</v>
+        <v>2188800</v>
       </c>
       <c r="I61" s="3">
-        <v>1768900</v>
+        <v>1878000</v>
       </c>
       <c r="J61" s="3">
+        <v>1611200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1194500</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1724400</v>
+        <v>1630300</v>
       </c>
       <c r="E62" s="3">
-        <v>1697800</v>
+        <v>1570600</v>
       </c>
       <c r="F62" s="3">
-        <v>2142700</v>
+        <v>1546400</v>
       </c>
       <c r="G62" s="3">
-        <v>1015600</v>
+        <v>1951700</v>
       </c>
       <c r="H62" s="3">
-        <v>1180200</v>
+        <v>925000</v>
       </c>
       <c r="I62" s="3">
-        <v>2048800</v>
+        <v>1074900</v>
       </c>
       <c r="J62" s="3">
+        <v>1866100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1526200</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2102,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2129,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2156,36 +2275,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12712800</v>
+        <v>11616800</v>
       </c>
       <c r="E66" s="3">
-        <v>11331300</v>
+        <v>11579300</v>
       </c>
       <c r="F66" s="3">
-        <v>11879500</v>
+        <v>10321000</v>
       </c>
       <c r="G66" s="3">
-        <v>6132700</v>
+        <v>10820300</v>
       </c>
       <c r="H66" s="3">
-        <v>5827400</v>
+        <v>5585900</v>
       </c>
       <c r="I66" s="3">
-        <v>5518200</v>
+        <v>5307800</v>
       </c>
       <c r="J66" s="3">
+        <v>5026200</v>
+      </c>
+      <c r="K66" s="3">
         <v>4253500</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2197,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2223,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2250,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2277,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2304,36 +2439,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>815800</v>
+        <v>953700</v>
       </c>
       <c r="E72" s="3">
-        <v>691200</v>
+        <v>743100</v>
       </c>
       <c r="F72" s="3">
-        <v>610200</v>
+        <v>629600</v>
       </c>
       <c r="G72" s="3">
-        <v>530300</v>
+        <v>555800</v>
       </c>
       <c r="H72" s="3">
-        <v>547900</v>
+        <v>483000</v>
       </c>
       <c r="I72" s="3">
-        <v>1570600</v>
+        <v>499000</v>
       </c>
       <c r="J72" s="3">
+        <v>1430500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1473800</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2358,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2385,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2412,36 +2559,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1548200</v>
+        <v>1544600</v>
       </c>
       <c r="E76" s="3">
-        <v>1608100</v>
+        <v>1410200</v>
       </c>
       <c r="F76" s="3">
-        <v>1516200</v>
+        <v>1464700</v>
       </c>
       <c r="G76" s="3">
-        <v>1485800</v>
+        <v>1381000</v>
       </c>
       <c r="H76" s="3">
-        <v>1509100</v>
+        <v>1353300</v>
       </c>
       <c r="I76" s="3">
-        <v>1537600</v>
+        <v>1374600</v>
       </c>
       <c r="J76" s="3">
+        <v>1400500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1429900</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2466,68 +2619,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41364</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40999</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>141300</v>
+        <v>227800</v>
       </c>
       <c r="E81" s="3">
-        <v>89300</v>
+        <v>128700</v>
       </c>
       <c r="F81" s="3">
-        <v>104000</v>
+        <v>81300</v>
       </c>
       <c r="G81" s="3">
-        <v>41100</v>
+        <v>94700</v>
       </c>
       <c r="H81" s="3">
-        <v>31400</v>
+        <v>37500</v>
       </c>
       <c r="I81" s="3">
-        <v>108700</v>
+        <v>28600</v>
       </c>
       <c r="J81" s="3">
+        <v>99000</v>
+      </c>
+      <c r="K81" s="3">
         <v>301600</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2539,35 +2701,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>497000</v>
+        <v>481400</v>
       </c>
       <c r="E83" s="3">
-        <v>444900</v>
+        <v>452700</v>
       </c>
       <c r="F83" s="3">
-        <v>302000</v>
+        <v>405200</v>
       </c>
       <c r="G83" s="3">
-        <v>173900</v>
+        <v>275100</v>
       </c>
       <c r="H83" s="3">
-        <v>112600</v>
+        <v>158400</v>
       </c>
       <c r="I83" s="3">
-        <v>85800</v>
+        <v>102500</v>
       </c>
       <c r="J83" s="3">
+        <v>78200</v>
+      </c>
+      <c r="K83" s="3">
         <v>66900</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2592,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2619,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2646,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2673,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2700,36 +2878,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1048100</v>
+        <v>1255900</v>
       </c>
       <c r="E89" s="3">
-        <v>932000</v>
+        <v>954700</v>
       </c>
       <c r="F89" s="3">
-        <v>859000</v>
+        <v>848900</v>
       </c>
       <c r="G89" s="3">
-        <v>286400</v>
+        <v>782400</v>
       </c>
       <c r="H89" s="3">
-        <v>289800</v>
+        <v>260900</v>
       </c>
       <c r="I89" s="3">
-        <v>72600</v>
+        <v>263900</v>
       </c>
       <c r="J89" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K89" s="3">
         <v>167200</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2741,35 +2925,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-630000</v>
+        <v>-613700</v>
       </c>
       <c r="E91" s="3">
-        <v>-561700</v>
+        <v>-573900</v>
       </c>
       <c r="F91" s="3">
-        <v>-515400</v>
+        <v>-511600</v>
       </c>
       <c r="G91" s="3">
-        <v>-272300</v>
+        <v>-469400</v>
       </c>
       <c r="H91" s="3">
-        <v>-250300</v>
+        <v>-248100</v>
       </c>
       <c r="I91" s="3">
-        <v>-975500</v>
+        <v>-227900</v>
       </c>
       <c r="J91" s="3">
+        <v>-888600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-233200</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2794,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2821,36 +3012,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-917200</v>
+        <v>-350000</v>
       </c>
       <c r="E94" s="3">
-        <v>-186400</v>
+        <v>-835400</v>
       </c>
       <c r="F94" s="3">
-        <v>-257200</v>
+        <v>-169800</v>
       </c>
       <c r="G94" s="3">
-        <v>-79100</v>
+        <v>-234200</v>
       </c>
       <c r="H94" s="3">
-        <v>-129400</v>
+        <v>-72100</v>
       </c>
       <c r="I94" s="3">
-        <v>-694900</v>
+        <v>-117900</v>
       </c>
       <c r="J94" s="3">
+        <v>-633000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-302600</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2862,35 +3059,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-279400</v>
+        <v>-203500</v>
       </c>
       <c r="E96" s="3">
-        <v>-369300</v>
+        <v>-254500</v>
       </c>
       <c r="F96" s="3">
-        <v>-168400</v>
+        <v>-336400</v>
       </c>
       <c r="G96" s="3">
-        <v>-152800</v>
+        <v>-153300</v>
       </c>
       <c r="H96" s="3">
-        <v>-80600</v>
+        <v>-139200</v>
       </c>
       <c r="I96" s="3">
-        <v>-101600</v>
+        <v>-73400</v>
       </c>
       <c r="J96" s="3">
+        <v>-92600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-85500</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2915,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2942,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2969,88 +3176,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-145000</v>
+        <v>-1192400</v>
       </c>
       <c r="E100" s="3">
-        <v>-466400</v>
+        <v>-132100</v>
       </c>
       <c r="F100" s="3">
-        <v>-139100</v>
+        <v>-424800</v>
       </c>
       <c r="G100" s="3">
-        <v>-168800</v>
+        <v>-126700</v>
       </c>
       <c r="H100" s="3">
-        <v>-172600</v>
+        <v>-153800</v>
       </c>
       <c r="I100" s="3">
-        <v>751500</v>
+        <v>-157200</v>
       </c>
       <c r="J100" s="3">
+        <v>684500</v>
+      </c>
+      <c r="K100" s="3">
         <v>71000</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>28400</v>
+        <v>68600</v>
       </c>
       <c r="E101" s="3">
-        <v>-24400</v>
+        <v>25800</v>
       </c>
       <c r="F101" s="3">
-        <v>13200</v>
+        <v>-22300</v>
       </c>
       <c r="G101" s="3">
-        <v>-2600</v>
+        <v>12100</v>
       </c>
       <c r="H101" s="3">
-        <v>3500</v>
+        <v>-2400</v>
       </c>
       <c r="I101" s="3">
-        <v>1000</v>
+        <v>3100</v>
       </c>
       <c r="J101" s="3">
+        <v>900</v>
+      </c>
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>14300</v>
+        <v>-218000</v>
       </c>
       <c r="E102" s="3">
-        <v>254800</v>
+        <v>13000</v>
       </c>
       <c r="F102" s="3">
-        <v>476000</v>
+        <v>232100</v>
       </c>
       <c r="G102" s="3">
-        <v>35800</v>
+        <v>433500</v>
       </c>
       <c r="H102" s="3">
-        <v>-8800</v>
+        <v>32600</v>
       </c>
       <c r="I102" s="3">
-        <v>130200</v>
+        <v>-8100</v>
       </c>
       <c r="J102" s="3">
+        <v>118600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-60400</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
